--- a/data/cleaned_data/2017_FL.xlsx
+++ b/data/cleaned_data/2017_FL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="283">
   <si>
     <t>Year</t>
   </si>
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -127,7 +127,7 @@
     <t>HOLMES</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>INDIAN RIVER</t>
   </si>
   <si>
     <t>JACKSON</t>
@@ -187,7 +187,7 @@
     <t>OSCEOLA</t>
   </si>
   <si>
-    <t>BEACH</t>
+    <t>PALM BEACH</t>
   </si>
   <si>
     <t>PASCO</t>
@@ -202,7 +202,7 @@
     <t>PUTNAM</t>
   </si>
   <si>
-    <t>ROSA</t>
+    <t>SANTA ROSA</t>
   </si>
   <si>
     <t>SARASOTA</t>
@@ -211,10 +211,10 @@
     <t>SEMINOLE</t>
   </si>
   <si>
-    <t>JOHNS</t>
-  </si>
-  <si>
-    <t>LUCIE</t>
+    <t>ST. JOHNS</t>
+  </si>
+  <si>
+    <t>ST. LUCIE</t>
   </si>
   <si>
     <t>SUMTER</t>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>Sebring-Avon Park, FL</t>
+  </si>
+  <si>
+    <t>Sebastian-Vero Beach, FL</t>
   </si>
   <si>
     <t>Orlando-Kissimmee-Sanford, FL</t>
@@ -1272,7 +1275,7 @@
         <v>252</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1298,7 +1301,7 @@
         <v>253</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1324,7 +1327,7 @@
         <v>254</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1370,7 +1373,7 @@
         <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1396,7 +1399,7 @@
         <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1442,7 +1445,7 @@
         <v>257</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1468,7 +1471,7 @@
         <v>258</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1494,7 +1497,7 @@
         <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1520,7 +1523,7 @@
         <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1546,7 +1549,7 @@
         <v>260</v>
       </c>
       <c r="H13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1572,7 +1575,7 @@
         <v>261</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1618,7 +1621,7 @@
         <v>253</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1644,7 +1647,7 @@
         <v>262</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1670,7 +1673,7 @@
         <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1716,7 +1719,7 @@
         <v>264</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1742,7 +1745,7 @@
         <v>252</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1828,7 +1831,7 @@
         <v>265</v>
       </c>
       <c r="H25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1854,7 +1857,7 @@
         <v>266</v>
       </c>
       <c r="H26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1880,7 +1883,7 @@
         <v>267</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1906,7 +1909,7 @@
         <v>268</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1932,7 +1935,7 @@
         <v>267</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1971,6 +1974,15 @@
       <c r="E31" t="s">
         <v>215</v>
       </c>
+      <c r="F31">
+        <v>154241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
@@ -2015,7 +2027,7 @@
         <v>264</v>
       </c>
       <c r="H33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2058,10 +2070,10 @@
         <v>345432</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,10 +2096,10 @@
         <v>740000</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2113,7 +2125,7 @@
         <v>264</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2151,7 @@
         <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2202,10 +2214,10 @@
         <v>385506</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2228,10 +2240,10 @@
         <v>353339</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2254,10 +2266,10 @@
         <v>159701</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,7 +2295,7 @@
         <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2306,10 +2318,10 @@
         <v>76483</v>
       </c>
       <c r="G45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,7 +2347,7 @@
         <v>253</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2358,10 +2370,10 @@
         <v>203478</v>
       </c>
       <c r="G47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2384,10 +2396,10 @@
         <v>41275</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2410,10 +2422,10 @@
         <v>1355921</v>
       </c>
       <c r="G49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2436,10 +2448,10 @@
         <v>353623</v>
       </c>
       <c r="G50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2458,6 +2470,15 @@
       <c r="E51" t="s">
         <v>234</v>
       </c>
+      <c r="F51">
+        <v>1470344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
@@ -2482,7 +2503,7 @@
         <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2508,7 +2529,7 @@
         <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2531,10 +2552,10 @@
         <v>685368</v>
       </c>
       <c r="G54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2557,10 +2578,10 @@
         <v>73384</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2579,6 +2600,15 @@
       <c r="E56" t="s">
         <v>239</v>
       </c>
+      <c r="F56">
+        <v>174049</v>
+      </c>
+      <c r="G56" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
@@ -2600,10 +2630,10 @@
         <v>419680</v>
       </c>
       <c r="G57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2626,10 +2656,10 @@
         <v>462801</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2648,6 +2678,15 @@
       <c r="E59" t="s">
         <v>242</v>
       </c>
+      <c r="F59">
+        <v>243693</v>
+      </c>
+      <c r="G59" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
@@ -2665,6 +2704,15 @@
       <c r="E60" t="s">
         <v>243</v>
       </c>
+      <c r="F60">
+        <v>313163</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
@@ -2686,10 +2734,10 @@
         <v>124995</v>
       </c>
       <c r="G61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2775,7 +2823,7 @@
         <v>263</v>
       </c>
       <c r="H65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2801,7 +2849,7 @@
         <v>264</v>
       </c>
       <c r="H66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2824,10 +2872,10 @@
         <v>68021</v>
       </c>
       <c r="G67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:8">
